--- a/biology/Zoologie/Canard_Campbell_anglais/Canard_Campbell_anglais.xlsx
+++ b/biology/Zoologie/Canard_Campbell_anglais/Canard_Campbell_anglais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le canard Campbell anglais est une race de canard domestique originaire d'Angleterre.
@@ -512,7 +524,9 @@
           <t>Origine et histoire de la race</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Campbell anglais, pour sa variété kaki, a été créé vers 1901 (en Angleterre) par Miss Campbell à partir de canards de Rouen anglais, Coureur indien et Colvert par des croisements intelligemment combinés.
 La variété blanche a été créée par Captain F.S. Pardoe vers 1924 et homologuée au standard en 1934.
@@ -544,18 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Campbell anglais est un canard de taille moyenne, bien proportionné, élégant tout en étant bien en chair.  Le canard doit atteindre une masse d'environ 2,5 kg et la cane 2,25 kg. Ce n’est donc pas une grosse race, les meilleurs pondeuses n’étant pas de gros animaux.  Le Coureur indien ayant été employé pour la création de cette race, le port est légèrement relevé. Ce n’est pas une race très bruyante et qui s’accommode très bien en élevage naturel sur un petit plan d’eau.
-Ponte
-La cane est une excellente pondeuse d'œufs de 65g minimum à coquille blanche à verdâtre. Élevée dans de bonnes conditions (avec point d’eau et grand parcours herbeux), il n’est pas rare d’avoir plus de 300 œufs par an et par canes!
-Reproduction
-C’est une race qui se reproduit plutôt bien. Dans un élevage correct avec des spécimens en pleine forme, le taux de fécondité doit dépasser les 80% à la belle saison. A noter que la présence d’un plan d’eau améliore nettement la reproduction et donc la fécondité!
-Incubation
-Les canes ne sont pas de très bonnes  couveuses, même si l’incubation naturelle est souhaitable, il est préférable de placer les œufs dans un incubateur.  Comme pour tous les œufs de canards issus du canard colvert, l’incubation prend 28 jours.
-En incubation artificielle, la température sera de 37,5C°, avec une humidité de 45%, les œufs seront retournés au minimum 2 fois par jour. A partir du 25é jour, les œufs ne seront plus retournés et l’humidité sera monté à 75-80%.
-Élevage des canetons
-À la naissance, laissez les canetons séchés 24h dans la couveuse.                                             Ils peuvent ensuite être placés dans une éleveuse avec un point chaud à 35C° et une température ambiante de 25C°, la température sera diminuée de 2-3C° chaque semaine jusqu’à ce qu’ils puissent sortir vers 4-5 semaines (suivant la météo extérieur).
 </t>
         </is>
       </c>
@@ -581,10 +588,161 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ponte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cane est une excellente pondeuse d'œufs de 65g minimum à coquille blanche à verdâtre. Élevée dans de bonnes conditions (avec point d’eau et grand parcours herbeux), il n’est pas rare d’avoir plus de 300 œufs par an et par canes!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Canard_Campbell_anglais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canard_Campbell_anglais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une race qui se reproduit plutôt bien. Dans un élevage correct avec des spécimens en pleine forme, le taux de fécondité doit dépasser les 80% à la belle saison. A noter que la présence d’un plan d’eau améliore nettement la reproduction et donc la fécondité!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Canard_Campbell_anglais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canard_Campbell_anglais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Incubation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les canes ne sont pas de très bonnes  couveuses, même si l’incubation naturelle est souhaitable, il est préférable de placer les œufs dans un incubateur.  Comme pour tous les œufs de canards issus du canard colvert, l’incubation prend 28 jours.
+En incubation artificielle, la température sera de 37,5C°, avec une humidité de 45%, les œufs seront retournés au minimum 2 fois par jour. A partir du 25é jour, les œufs ne seront plus retournés et l’humidité sera monté à 75-80%.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Canard_Campbell_anglais</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canard_Campbell_anglais</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Élevage des canetons</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la naissance, laissez les canetons séchés 24h dans la couveuse.                                             Ils peuvent ensuite être placés dans une éleveuse avec un point chaud à 35C° et une température ambiante de 25C°, la température sera diminuée de 2-3C° chaque semaine jusqu’à ce qu’ils puissent sortir vers 4-5 semaines (suivant la météo extérieur).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Canard_Campbell_anglais</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Canard_Campbell_anglais</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Caractéristiques du canard et de la cane :
 Corps : allongé, contours arrondis, port légèrement relevé.
